--- a/medicine/Enfance/Paluel-Marmont/Paluel-Marmont.xlsx
+++ b/medicine/Enfance/Paluel-Marmont/Paluel-Marmont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albert Pierre Hippolyte Joseph Paluel-Marmont, né le 16 novembre 1895 à Casseneuil (Lot-et-Garonne) et mort le 16 juillet 1959 à Neuilly-sur-Seine[1], est un journaliste, écrivain et historien français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Pierre Hippolyte Joseph Paluel-Marmont, né le 16 novembre 1895 à Casseneuil (Lot-et-Garonne) et mort le 16 juillet 1959 à Neuilly-sur-Seine, est un journaliste, écrivain et historien français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a notamment publié des romans d'aventures pour la jeunesse qui se déroulent dans des cadres exotiques.  La majorité de ses œuvres ont cependant un caractère documentaire, historique ou scientifique et il s'est fait une spécialité de l'histoire de la colonisation française. Il a toujours signé ses œuvres de son seul patronyme.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(liste non exhaustive) 
 1927 : Fille du Sud, La Renaissance du livre, roman
@@ -570,7 +586,7 @@
 1939 : Banquise, L. Billaudot , pièce de théâtre
 1939 : L’Épopée coloniale française racontée à la jeunesse, prés. par le général Gouraud, ill. Pierre Luc, Gründ, coll. « Légendes et épopées »
 1941 : Le Filleul du Transsaharien, ill. Jacques Souriau, Éd. de Montsouris, coll. « Pierrot » no 2, roman pour la jeunesse
-1941 : Il était une fois un Maréchal de France, Éditions et Publications Françaises, ill. Pierre Rousseau (il existe aussi une version avec couverture de Germaine Bouret)[2]
+1941 : Il était une fois un Maréchal de France, Éditions et Publications Françaises, ill. Pierre Rousseau (il existe aussi une version avec couverture de Germaine Bouret)
 1942 : À travers les sables, ill. Pierre Rousseau, Éd. littéraires et artistiques, coll. « À la française »
 1942 : La Belle Histoire de la France, ill. Pierre Luc, Éd. artistiques et littéraires, coll. « Lys de France » no 4
 1942 : La Ferme blanche, ill. Jacques Souriau, Éd. de Montsouris, coll. « Lisette » no 5, roman pour la jeunesse
@@ -578,7 +594,7 @@
 1942 : Jean Bart, prestigieux corsaire, ill. Pierre Rousseau, Éd. littéraires et artistiques, coll. « À la française »
 1942 : Perdus dans les glaces, ill. Jacques Souriau, Éd. de Montsouris, coll. « Pierrot » no 6, roman pour la jeunesse
 1942 : Six petits enfants et treize étoiles, images de Lucien Boucher, Éd. et publications françaises
-1942 : Yousouf premier spahi de France[3], ill. Pierre Rousseau, Éd. Colbert, coll. « L'Histoire et l'épopée » — Réédition : 1953, ill. Claude Delaunay, G. P., coll. « Rouge et Or » no 77
+1942 : Yousouf premier spahi de France, ill. Pierre Rousseau, Éd. Colbert, coll. « L'Histoire et l'épopée » — Réédition : 1953, ill. Claude Delaunay, G. P., coll. « Rouge et Or » no 77
 1942 : Bournazel l’homme rouge, dessins de Pierre Noël, couv. de G. de Sainte-Croix, Denoël, coll. « La Fleur de France » no 8, Les Grands Capitaines
 1942 : Cuverville, moderne chevalier, ill. Dominique, Denoël, coll. « La Fleur de France » no 18, Les Grands Navigateurs
 1943 : Bugeaud premier Français d'Algérie, Mame, coll. « Découvertes Exploits héroïques »
@@ -586,7 +602,7 @@
 1943 : Henri de Lespinasse de Bournazel, A. Bonne, coll. « Les Belles Histoires de France » no 3
 1943 : Histoire de la Bourgogne racontée à la jeunesse, Gründ, coll. « Provinces de France » no 1
 1943 : Histoire de la Provence racontée à la jeunesse, Gründ, coll. « Provinces de France » no 6
-1943 : Il était une fois un maréchal de France[4], images de Pierre Rousseau, Éd. et publications françaises
+1943 : Il était une fois un maréchal de France, images de Pierre Rousseau, Éd. et publications françaises
 1943 : La Piste sans nom, Janicot, coll. « « Collection Rouge » »
 1944 : L’Épopée du Transsaharien, Éd. Aux Armes de France
 1944 : Histoire des ballons racontée à la jeunesse, ill. Mixi, Gründ, coll. « Merveilles de la science »
@@ -651,11 +667,13 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Montyon de l'Académie française en 1929 et 1933[5]
-Prix Boudenoot de l'Académie française en 1940[6]
-Titulaire de la Francisque[7]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix Montyon de l'Académie française en 1929 et 1933
+Prix Boudenoot de l'Académie française en 1940
+Titulaire de la Francisque</t>
         </is>
       </c>
     </row>
